--- a/Exercise Files/01_05.xlsx
+++ b/Exercise Files/01_05.xlsx
@@ -1,41 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yapatel/Desktop/ExerciseFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/mdmuntaha_islam_iqvia_com/Documents/Documents/My Courses/Data-Analytics-for-Business-Professionals/Exercise Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_407AE5EB0E4FDEEA21EFB05D0A1CB055DF79EF4C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECF3B8B6-5D17-4E41-BD37-B0917B8C6325}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1120" windowWidth="28800" windowHeight="14060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 2.A" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>John Johnson</author>
+    <author>Islam, Md Muntaha EX1</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,6 +140,126 @@
           </rPr>
           <t xml:space="preserve">
 These are the comments provided by the local store manager.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="1" shapeId="0" xr:uid="{69A14338-5741-4776-A51A-531AC1BFAA62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="1" shapeId="0" xr:uid="{A1BF2741-33F0-45A2-92F9-9432BDA58054}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Range of data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{001849B4-EEE7-4892-88D9-DE4B2F0DF576}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sum of the score divided by observation count.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="1" shapeId="0" xr:uid="{470954E0-14C1-40E0-8156-37A0078621F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Middle number in an ascending ordered series.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="1" shapeId="0" xr:uid="{C1165F82-A00D-4F23-9643-4E61E87C83C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The number that occurs most often.</t>
         </r>
       </text>
     </comment>
@@ -137,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>WearOne Stores</t>
   </si>
@@ -179,13 +310,28 @@
   </si>
   <si>
     <t>Knows t-shirt line well</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -204,6 +350,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -541,25 +700,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -567,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -575,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -589,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>101</v>
       </c>
@@ -603,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102</v>
       </c>
@@ -617,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>103</v>
       </c>
@@ -628,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>104</v>
       </c>
@@ -639,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>105</v>
       </c>
@@ -650,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>106</v>
       </c>
@@ -660,8 +819,14 @@
       <c r="C12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>107</v>
       </c>
@@ -671,8 +836,15 @@
       <c r="C13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <f>B21-B7</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>108</v>
       </c>
@@ -682,8 +854,15 @@
       <c r="C14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <f>SUM(B7:B21)/H12</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>109</v>
       </c>
@@ -696,8 +875,15 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <f>MEDIAN(B7:B21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -707,8 +893,15 @@
       <c r="C16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.MODE.SNGL(B7:B21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>111</v>
       </c>
@@ -719,7 +912,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112</v>
       </c>
@@ -730,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -744,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>114</v>
       </c>
@@ -755,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>115</v>
       </c>

--- a/Exercise Files/01_05.xlsx
+++ b/Exercise Files/01_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/mdmuntaha_islam_iqvia_com/Documents/Documents/My Courses/Data-Analytics-for-Business-Professionals/Exercise Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_407AE5EB0E4FDEEA21EFB05D0A1CB055DF79EF4C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECF3B8B6-5D17-4E41-BD37-B0917B8C6325}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_407AE5EB0E4FDEEA21EFB05D0A1CB055DF79EF4C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{850E0B65-B440-428E-960E-56184F9F0A9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Middle number in an ascending ordered series.</t>
+Middle number in an ascending ordered series. When the mean and the median are really close, it means the data has a normal distribution. Otherwise it's skewed. For this table, it can be said that it's skewed.</t>
         </r>
       </text>
     </comment>
